--- a/studioChangjianCuowu.xlsx
+++ b/studioChangjianCuowu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <r>
       <rPr>
@@ -83,7 +83,16 @@
     <t>本地路径：G:\ruanjianyuan\studio\stu\gradle\m2repository\com\android\tools\build\gradle</t>
   </si>
   <si>
-    <t>cmd常用方法</t>
+    <t>cmd打开文件方法</t>
+  </si>
+  <si>
+    <t>*********</t>
+  </si>
+  <si>
+    <t>Git提交文件到指定仓库</t>
+  </si>
+  <si>
+    <t>电脑操作快捷键</t>
   </si>
   <si>
     <t>d：</t>
@@ -92,204 +101,106 @@
     <t>进入D盘</t>
   </si>
   <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>初始化git</t>
+  </si>
+  <si>
+    <t>ALT+TAB</t>
+  </si>
+  <si>
+    <t>正向切换任务</t>
+  </si>
+  <si>
     <t>cd test</t>
   </si>
   <si>
     <t>打开test文件夹</t>
   </si>
   <si>
+    <t>git add 文件名</t>
+  </si>
+  <si>
+    <t>当要把整个项目都提交则用 git add .</t>
+  </si>
+  <si>
+    <t>ALT+SHIFT+TAB</t>
+  </si>
+  <si>
+    <t>反向切换任务</t>
+  </si>
+  <si>
     <t>dir</t>
   </si>
   <si>
     <t>显示test文件目录</t>
   </si>
   <si>
+    <t>git commit -m "提交成功"</t>
+  </si>
+  <si>
+    <t>WINDOWS + D</t>
+  </si>
+  <si>
+    <t>回到桌面</t>
+  </si>
+  <si>
     <t>test2</t>
   </si>
   <si>
     <t>打开test下test2文件</t>
   </si>
   <si>
-    <t>Git提交文件到指定仓库</t>
-  </si>
-  <si>
-    <t>git init</t>
-  </si>
-  <si>
-    <r>
-      <t>初始化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git add </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>当要把整个项目都提交则用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git add .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git commit -m "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交成功</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>git remote add origin https://github.com/wbb0908/gerenZongjie.git</t>
   </si>
   <si>
-    <r>
-      <t>将本地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和服务器上的连接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果已经连接，这一步可以省略）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git push</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git push -u origin master</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>将本地项目推上去(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果远程仓库里面的项目没有其他文件就可以直接推送，反之，则必须先pull到本地仓库，合并后才能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>push</t>
-    </r>
+    <t>将本地git和服务器上的连接(如果已经连接，这一步可以省略）</t>
+  </si>
+  <si>
+    <t>cd ..</t>
+  </si>
+  <si>
+    <t>返回上一目录</t>
+  </si>
+  <si>
+    <t>git push或者git push -u origin master</t>
+  </si>
+  <si>
+    <t>将本地项目推上去(如果远程仓库里面的项目没有其他文件就可以直接推送，反之，则必须先pull到本地仓库，合并后才能push</t>
   </si>
   <si>
     <t>合并办法：git pull --rebase origin master</t>
   </si>
   <si>
+    <t>此时如果origin的master分支上有一些本地没有的提交,push会失败.
+　　所以解决的办法是, 首先设定本地master的上游分支:
+　　git branch --set-upstream-to=origin/master
+　　然后pull:
+　　git pull --rebase
+　　最后再push:
+　　git push</t>
+  </si>
+  <si>
+    <t>cd \</t>
+  </si>
+  <si>
+    <t>返回到本磁盘根目录</t>
+  </si>
+  <si>
     <t>Git删除指定仓库中的文件</t>
   </si>
   <si>
+    <t>c:</t>
+  </si>
+  <si>
+    <t>返回到c盘</t>
+  </si>
+  <si>
     <t>git rm</t>
   </si>
   <si>
     <t>删掉要删除的文件</t>
-  </si>
-  <si>
-    <t>git commit -m "提交成功"</t>
   </si>
   <si>
     <t>为了能将远程仓库的相应文件也删除掉，我们要把这次操作提交到上去</t>
@@ -332,7 +243,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,12 +272,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF14191E"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -392,6 +297,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -536,29 +447,19 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -861,149 +762,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,35 +923,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1144,7 +1054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="514350"/>
-          <a:ext cx="3371215" cy="2019300"/>
+          <a:ext cx="3828415" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,24 +1357,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:J49"/>
+  <dimension ref="B4:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="35.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="15.75" spans="8:9">
       <c r="H4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1506,160 +1417,242 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="23" spans="2:9">
+      <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
+      <c r="H23"/>
+      <c r="I23" t="s">
         <v>15</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="24" ht="17.25" spans="2:10">
+      <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
+      <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" ht="17.25" spans="2:6">
-      <c r="B27" t="s">
+      <c r="F24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" ht="17.25" spans="6:6">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" ht="17.25" spans="6:6">
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="J24" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="51" spans="2:10">
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="2:10">
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="89.25" spans="2:8">
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" ht="202.5" spans="2:8">
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="38.25" spans="2:8">
-      <c r="B32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="39.75" spans="2:8">
-      <c r="B33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" ht="94.5" spans="2:3">
-      <c r="B34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="126" customHeight="1" spans="2:8">
-      <c r="B35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
+      <c r="F31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="4:8">
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="4:8">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="126" customHeight="1" spans="4:8">
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId2" display="http://www.jianshu.com/p/e1c0b46e317c" tooltip="http://www.jianshu.com/p/e1c0b46e317c"/>
-    <hyperlink ref="B34" r:id="rId3" display="git remote add origin https://github.com/wbb0908/gerenZongjie.git" tooltip="https://github.com/wbb0908/gerenZongjie"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
